--- a/graph_generation/results_prelim/claude2/level_10/k_0.xlsx
+++ b/graph_generation/results_prelim/claude2/level_10/k_0.xlsx
@@ -31,48 +31,36 @@
     <t>evaluator_partial_correctness</t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-What is the least cost path to travel first from node 0 to node N, and then from node node N to node 15? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K L M N O P
- A 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 4 0 1 0 0 0 1 0 0 0 3 1 0 0 0 5
- C 0 1 0 4 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 4 0 4 4 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 1 0 0 0 0 0 4 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 4 0 2 4 0 0 3 0 0 0
- I 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
- K 0 3 0 0 0 0 0 0 0 0 0 2 0 0 0 0
- L 0 1 0 0 0 0 0 0 0 0 2 0 0 0 0 0
- M 0 0 0 0 0 0 0 3 0 0 0 0 0 1 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 3 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 5
- P 0 5 0 0 0 0 0 0 0 0 0 0 0 0 5 0
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 11 nodes labelled A to K. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path to travel first from node A to node F, and then from node node F to node K? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K
+ A 0 4 0 0 0 0 0 0 0 0 1
+ B 4 0 3 0 0 0 0 0 0 0 5
+ C 0 3 0 3 2 0 0 1 0 0 0
+ D 0 0 3 0 0 0 0 0 0 0 0
+ E 0 0 2 0 0 4 0 0 0 0 0
+ F 0 0 0 0 4 0 2 0 0 0 0
+ G 0 0 0 0 0 2 0 0 0 0 0
+ H 0 0 1 0 0 0 0 0 1 0 0
+ I 0 0 0 0 0 0 0 1 0 2 0
+ J 0 0 0 0 0 0 0 0 2 0 0
+ K 1 5 0 0 0 0 0 0 0 0 0
     </t>
   </si>
   <si>
-    <t>Path from A to N: A -&gt; B -&gt; G -&gt; H -&gt; M -&gt; N
-Path from N to P: N -&gt; O -&gt; P</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Based on the given adjacency matrix, the least cost path from node A to node N is:
-A -&gt; B -&gt; K -&gt; N
-The total cost is: 
-A to B: 4
-B to K: 3  
-K to N: 0
-Total cost = 4 + 3 + 0 = 7
-The least cost path from node N to node P is: 
-N -&gt; O -&gt; P
-The total cost is:
-N to O: 3
-O to P: 5  
-Total cost = 3 + 5 = 8
+    <t>Path from A to F: A -&gt; B -&gt; C -&gt; E -&gt; F
+Path from F to K: F -&gt; E -&gt; C -&gt; B -&gt; K</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The least cost path from A to F is:
+A -&gt; K -&gt; F
+With a total cost of 1 + 0 = 1
+The least cost path from F to K is: 
+F -&gt; G -&gt; K
+With a total cost of 2 + 0 = 2
 Therefore, the full least cost path is:
-A -&gt; B -&gt; K -&gt; N 
-N -&gt; O -&gt; P</t>
+A -&gt; K -&gt; F -&gt; G -&gt; K
+With a total cost of 1 + 2 = 3</t>
   </si>
   <si>
     <t>Wrong</t>
